--- a/message/sanitized.xlsx
+++ b/message/sanitized.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20363"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EdgarDrake\Projects\itsraxeira.github.io\message\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nurul Albab\Downloads\Norde\itsraxeira.github.io\message\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E425F43A-FD6F-43A1-964B-3EBB626EEB2F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{634A3920-266B-45B8-8291-8A76D75930B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="27585" windowHeight="17865" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="27580" windowHeight="17860" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Merchandises Werewolf " sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3295" uniqueCount="649">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3314" uniqueCount="661">
   <si>
     <t xml:space="preserve"> Are you ready to order? ^^ </t>
   </si>
@@ -2002,6 +2002,42 @@
   </si>
   <si>
     <t>ComfortCushion</t>
+  </si>
+  <si>
+    <t>Prodigyzen</t>
+  </si>
+  <si>
+    <t>Staff Nordanus</t>
+  </si>
+  <si>
+    <t>Panitia</t>
+  </si>
+  <si>
+    <t>The Kim</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>All Vestenians</t>
+  </si>
+  <si>
+    <t>Lee Yeseul</t>
+  </si>
+  <si>
+    <t>Someone</t>
+  </si>
+  <si>
+    <t>Im Hyerin</t>
+  </si>
+  <si>
+    <t>Lee Ace</t>
+  </si>
+  <si>
+    <t>Anonym</t>
+  </si>
+  <si>
+    <t>Thank you for your hard work! Ingat, kalian semua semerbak yang masing-masing punya identitas aromanya sendiri-sendiri. Taman bunga indah karena beragam jenisnya, bukan karena jumlahnya saja ^^ Terus berkreasi ya!</t>
   </si>
 </sst>
 </file>
@@ -2593,35 +2629,35 @@
       <selection pane="bottomLeft" activeCell="F143" sqref="F143"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.140625" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="34.140625" customWidth="1"/>
-    <col min="3" max="3" width="46.7109375" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="30.140625" customWidth="1"/>
-    <col min="5" max="5" width="38.42578125" customWidth="1"/>
-    <col min="6" max="6" width="46.7109375" customWidth="1"/>
-    <col min="11" max="11" width="46.7109375" hidden="1" customWidth="1"/>
-    <col min="12" max="13" width="46.7109375" customWidth="1"/>
-    <col min="14" max="14" width="46.7109375" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="46.7109375" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="46.7109375" customWidth="1"/>
-    <col min="22" max="22" width="46.7109375" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="27.1796875" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="34.1796875" customWidth="1"/>
+    <col min="3" max="3" width="46.7265625" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="30.1796875" customWidth="1"/>
+    <col min="5" max="5" width="38.453125" customWidth="1"/>
+    <col min="6" max="6" width="46.7265625" customWidth="1"/>
+    <col min="11" max="11" width="46.7265625" hidden="1" customWidth="1"/>
+    <col min="12" max="13" width="46.7265625" customWidth="1"/>
+    <col min="14" max="14" width="46.7265625" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="46.7265625" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="46.7265625" customWidth="1"/>
+    <col min="22" max="22" width="46.7265625" hidden="1" customWidth="1"/>
     <col min="23" max="23" width="0" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="16.28515625" hidden="1" customWidth="1"/>
-    <col min="25" max="25" width="18.140625" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="16.26953125" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="18.1796875" hidden="1" customWidth="1"/>
     <col min="26" max="27" width="0" hidden="1" customWidth="1"/>
-    <col min="28" max="28" width="14.5703125" hidden="1" customWidth="1"/>
-    <col min="29" max="29" width="15.140625" hidden="1" customWidth="1"/>
+    <col min="28" max="28" width="14.54296875" hidden="1" customWidth="1"/>
+    <col min="29" max="29" width="15.1796875" hidden="1" customWidth="1"/>
     <col min="30" max="33" width="0" hidden="1" customWidth="1"/>
-    <col min="34" max="34" width="14.85546875" customWidth="1"/>
-    <col min="35" max="35" width="14.7109375" customWidth="1"/>
-    <col min="36" max="36" width="15.7109375" customWidth="1"/>
-    <col min="37" max="37" width="15.5703125" customWidth="1"/>
-    <col min="38" max="38" width="17.5703125" customWidth="1"/>
+    <col min="34" max="34" width="14.81640625" customWidth="1"/>
+    <col min="35" max="35" width="14.7265625" customWidth="1"/>
+    <col min="36" max="36" width="15.7265625" customWidth="1"/>
+    <col min="37" max="37" width="15.54296875" customWidth="1"/>
+    <col min="38" max="38" width="17.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:38" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2737,7 +2773,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>33</v>
       </c>
@@ -2826,7 +2862,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>33</v>
       </c>
@@ -2876,7 +2912,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:38" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:38" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>33</v>
       </c>
@@ -2947,7 +2983,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:38" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:38" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>33</v>
       </c>
@@ -3003,7 +3039,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:38" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:38" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>33</v>
       </c>
@@ -3071,7 +3107,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:38" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:38" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>33</v>
       </c>
@@ -3139,7 +3175,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="8" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>33</v>
       </c>
@@ -3228,7 +3264,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>33</v>
       </c>
@@ -3296,7 +3332,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="10" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>33</v>
       </c>
@@ -3352,7 +3388,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>33</v>
       </c>
@@ -3441,7 +3477,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="12" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>33</v>
       </c>
@@ -3509,7 +3545,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="1:38" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:38" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>33</v>
       </c>
@@ -3595,7 +3631,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="1:38" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:38" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>33</v>
       </c>
@@ -3654,7 +3690,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>33</v>
       </c>
@@ -3728,7 +3764,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="1:38" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:38" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>33</v>
       </c>
@@ -3790,7 +3826,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="17" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>33</v>
       </c>
@@ -3864,7 +3900,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="18" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>33</v>
       </c>
@@ -3932,7 +3968,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="19" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>33</v>
       </c>
@@ -3958,7 +3994,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="20" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>33</v>
       </c>
@@ -4023,7 +4059,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="21" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>33</v>
       </c>
@@ -4106,7 +4142,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="22" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>33</v>
       </c>
@@ -4174,7 +4210,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="23" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>33</v>
       </c>
@@ -4245,7 +4281,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>33</v>
       </c>
@@ -4310,7 +4346,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="25" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>33</v>
       </c>
@@ -4372,7 +4408,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="26" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>33</v>
       </c>
@@ -4437,7 +4473,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="27" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>33</v>
       </c>
@@ -4502,7 +4538,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="28" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>33</v>
       </c>
@@ -4567,7 +4603,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>33</v>
       </c>
@@ -4632,7 +4668,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="30" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>33</v>
       </c>
@@ -4703,7 +4739,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="31" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>33</v>
       </c>
@@ -4768,7 +4804,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="32" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>33</v>
       </c>
@@ -4833,7 +4869,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="33" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>33</v>
       </c>
@@ -4898,7 +4934,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="34" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>33</v>
       </c>
@@ -4960,7 +4996,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="35" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>33</v>
       </c>
@@ -5043,7 +5079,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="36" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>33</v>
       </c>
@@ -5108,7 +5144,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="37" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>33</v>
       </c>
@@ -5173,7 +5209,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="38" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>33</v>
       </c>
@@ -5241,7 +5277,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="39" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>33</v>
       </c>
@@ -5306,7 +5342,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="40" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>33</v>
       </c>
@@ -5392,7 +5428,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="41" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>33</v>
       </c>
@@ -5481,7 +5517,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="42" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>33</v>
       </c>
@@ -5564,7 +5600,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="43" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>33</v>
       </c>
@@ -5632,7 +5668,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="44" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>33</v>
       </c>
@@ -5667,7 +5703,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="45" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>33</v>
       </c>
@@ -5732,7 +5768,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="46" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:33" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>33</v>
       </c>
@@ -5794,7 +5830,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="47" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>33</v>
       </c>
@@ -5862,7 +5898,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="48" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>33</v>
       </c>
@@ -5936,7 +5972,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="49" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>33</v>
       </c>
@@ -6004,7 +6040,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="50" spans="1:33" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:33" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>33</v>
       </c>
@@ -6027,7 +6063,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="51" spans="1:33" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:33" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>33</v>
       </c>
@@ -6086,7 +6122,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="52" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>33</v>
       </c>
@@ -6151,7 +6187,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="53" spans="1:33" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:33" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>33</v>
       </c>
@@ -6207,7 +6243,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="54" spans="1:33" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:33" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>33</v>
       </c>
@@ -6293,7 +6329,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="55" spans="1:33" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:33" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>33</v>
       </c>
@@ -6316,7 +6352,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="56" spans="1:33" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:33" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>33</v>
       </c>
@@ -6375,7 +6411,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="57" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>33</v>
       </c>
@@ -6437,7 +6473,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>33</v>
       </c>
@@ -6508,7 +6544,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="59" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>33</v>
       </c>
@@ -6591,7 +6627,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="60" spans="1:33" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:33" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>33</v>
       </c>
@@ -6650,7 +6686,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="61" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>33</v>
       </c>
@@ -6727,7 +6763,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="62" spans="1:33" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:33" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>33</v>
       </c>
@@ -6789,7 +6825,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="63" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>33</v>
       </c>
@@ -6854,7 +6890,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="64" spans="1:33" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:33" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>33</v>
       </c>
@@ -6886,7 +6922,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="65" spans="1:33" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:33" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>33</v>
       </c>
@@ -6942,7 +6978,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="66" spans="1:33" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:33" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>33</v>
       </c>
@@ -7004,7 +7040,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="67" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>33</v>
       </c>
@@ -7093,7 +7129,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="68" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>33</v>
       </c>
@@ -7182,7 +7218,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="69" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>33</v>
       </c>
@@ -7244,7 +7280,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="70" spans="1:33" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:33" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>33</v>
       </c>
@@ -7324,7 +7360,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="71" spans="1:33" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:33" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>33</v>
       </c>
@@ -7386,7 +7422,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="72" spans="1:33" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:33" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>33</v>
       </c>
@@ -7451,7 +7487,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="73" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>33</v>
       </c>
@@ -7516,7 +7552,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="74" spans="1:33" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:33" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>33</v>
       </c>
@@ -7587,7 +7623,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="75" spans="1:33" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:33" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>33</v>
       </c>
@@ -7655,7 +7691,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="76" spans="1:33" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:33" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>33</v>
       </c>
@@ -7729,7 +7765,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="77" spans="1:33" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:33" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>33</v>
       </c>
@@ -7785,7 +7821,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="78" spans="1:33" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:33" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>33</v>
       </c>
@@ -7841,7 +7877,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="79" spans="1:33" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:33" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>33</v>
       </c>
@@ -7897,7 +7933,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="80" spans="1:33" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:33" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>33</v>
       </c>
@@ -7983,7 +8019,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="81" spans="1:33" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:33" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>33</v>
       </c>
@@ -8042,7 +8078,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="82" spans="1:33" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:33" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>33</v>
       </c>
@@ -8107,7 +8143,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="83" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>33</v>
       </c>
@@ -8178,7 +8214,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="84" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>33</v>
       </c>
@@ -8267,7 +8303,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="85" spans="1:33" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:33" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>33</v>
       </c>
@@ -8347,7 +8383,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="86" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>33</v>
       </c>
@@ -8418,7 +8454,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="87" spans="1:33" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:33" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>33</v>
       </c>
@@ -8471,7 +8507,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="88" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>33</v>
       </c>
@@ -8536,7 +8572,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="89" spans="1:33" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:33" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>33</v>
       </c>
@@ -8616,7 +8652,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="90" spans="1:33" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:33" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>33</v>
       </c>
@@ -8693,7 +8729,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="91" spans="1:33" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:33" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>33</v>
       </c>
@@ -8746,7 +8782,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="92" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>33</v>
       </c>
@@ -8835,7 +8871,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="93" spans="1:33" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:33" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>33</v>
       </c>
@@ -8918,7 +8954,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="94" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>33</v>
       </c>
@@ -8983,7 +9019,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="95" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>33</v>
       </c>
@@ -9072,7 +9108,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="96" spans="1:33" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:33" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>33</v>
       </c>
@@ -9140,7 +9176,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="97" spans="1:33" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:33" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>33</v>
       </c>
@@ -9196,7 +9232,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="98" spans="1:33" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:33" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>33</v>
       </c>
@@ -9255,7 +9291,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="99" spans="1:33" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:33" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>33</v>
       </c>
@@ -9323,7 +9359,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="100" spans="1:33" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:33" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>33</v>
       </c>
@@ -9376,7 +9412,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="101" spans="1:33" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:33" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>33</v>
       </c>
@@ -9435,7 +9471,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="102" spans="1:33" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:33" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>33</v>
       </c>
@@ -9500,7 +9536,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="103" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>33</v>
       </c>
@@ -9565,7 +9601,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="104" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>33</v>
       </c>
@@ -9624,7 +9660,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="105" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>33</v>
       </c>
@@ -9710,7 +9746,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="106" spans="1:33" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:33" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>33</v>
       </c>
@@ -9793,7 +9829,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="107" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>33</v>
       </c>
@@ -9873,7 +9909,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="108" spans="1:33" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:33" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>33</v>
       </c>
@@ -9959,7 +9995,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="109" spans="1:33" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:33" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>33</v>
       </c>
@@ -10027,7 +10063,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="110" spans="1:33" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:33" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>33</v>
       </c>
@@ -10095,7 +10131,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="111" spans="1:33" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:33" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>33</v>
       </c>
@@ -10145,7 +10181,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="112" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>33</v>
       </c>
@@ -10216,7 +10252,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="113" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>33</v>
       </c>
@@ -10305,7 +10341,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="114" spans="1:33" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:33" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>33</v>
       </c>
@@ -10385,7 +10421,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="115" spans="1:33" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:33" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>33</v>
       </c>
@@ -10468,7 +10504,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="116" spans="1:33" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:33" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>33</v>
       </c>
@@ -10521,7 +10557,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="117" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>33</v>
       </c>
@@ -10589,7 +10625,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="118" spans="1:33" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:33" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>33</v>
       </c>
@@ -10615,7 +10651,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="119" spans="1:33" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:33" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>33</v>
       </c>
@@ -10689,7 +10725,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="120" spans="1:33" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:33" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>33</v>
       </c>
@@ -10748,7 +10784,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="121" spans="1:33" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:33" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>33</v>
       </c>
@@ -10807,7 +10843,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="122" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>33</v>
       </c>
@@ -10881,7 +10917,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="123" spans="1:33" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:33" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>33</v>
       </c>
@@ -10955,7 +10991,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="124" spans="1:33" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:33" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>33</v>
       </c>
@@ -11023,7 +11059,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="125" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>33</v>
       </c>
@@ -11088,7 +11124,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="126" spans="1:33" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:33" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>33</v>
       </c>
@@ -11153,7 +11189,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="127" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>33</v>
       </c>
@@ -11218,7 +11254,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="128" spans="1:33" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:33" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>33</v>
       </c>
@@ -11301,7 +11337,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="129" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>33</v>
       </c>
@@ -11369,7 +11405,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="130" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>33</v>
       </c>
@@ -11443,7 +11479,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="131" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>33</v>
       </c>
@@ -11517,7 +11553,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="132" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>33</v>
       </c>
@@ -11573,7 +11609,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="133" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>33</v>
       </c>
@@ -11623,7 +11659,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="134" spans="1:33" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:33" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>33</v>
       </c>
@@ -11682,7 +11718,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="135" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>33</v>
       </c>
@@ -11747,7 +11783,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="136" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>33</v>
       </c>
@@ -11815,7 +11851,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="137" spans="1:33" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:33" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
         <v>33</v>
       </c>
@@ -11895,7 +11931,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="138" spans="1:33" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:33" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>33</v>
       </c>
@@ -11981,7 +12017,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="139" spans="1:33" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:33" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>33</v>
       </c>
@@ -12046,7 +12082,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="140" spans="1:33" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:33" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>33</v>
       </c>
@@ -12132,7 +12168,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="141" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>33</v>
       </c>
@@ -12194,7 +12230,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="142" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
         <v>33</v>
       </c>
@@ -12259,7 +12295,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="143" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
         <v>33</v>
       </c>
@@ -12327,7 +12363,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="144" spans="1:33" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:33" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
         <v>33</v>
       </c>
@@ -12407,7 +12443,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="145" spans="1:33" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:33" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
         <v>33</v>
       </c>
@@ -12472,7 +12508,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="146" spans="1:33" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:33" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>33</v>
       </c>
@@ -12540,7 +12576,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="147" spans="1:33" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:33" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
         <v>33</v>
       </c>
@@ -12605,7 +12641,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="148" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
         <v>33</v>
       </c>
@@ -12679,7 +12715,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="149" spans="1:33" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:33" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
         <v>33</v>
       </c>
@@ -12744,7 +12780,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="150" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
         <v>33</v>
       </c>
@@ -12818,7 +12854,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="151" spans="1:33" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:33" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
         <v>33</v>
       </c>
@@ -12898,7 +12934,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="152" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
         <v>33</v>
       </c>
@@ -12954,7 +12990,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="153" spans="1:33" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:33" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
         <v>33</v>
       </c>
@@ -12998,7 +13034,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="154" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:33" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
         <v>33</v>
       </c>
@@ -13087,7 +13123,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="155" spans="1:33" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:33" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
         <v>33</v>
       </c>
@@ -13152,7 +13188,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="156" spans="1:33" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:33" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
         <v>33</v>
       </c>
@@ -13184,7 +13220,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="157" spans="1:33" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:33" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
         <v>33</v>
       </c>
@@ -13216,7 +13252,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="158" spans="1:33" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:33" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
         <v>33</v>
       </c>
@@ -13248,7 +13284,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="159" spans="1:33" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:33" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
         <v>33</v>
       </c>
@@ -13316,7 +13352,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="160" spans="1:33" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:33" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
         <v>33</v>
       </c>
@@ -13372,7 +13408,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="161" spans="1:33" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:33" ht="12.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
         <v>33</v>
       </c>
@@ -13541,27 +13577,27 @@
       <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.5703125" customWidth="1"/>
-    <col min="4" max="4" width="74.5703125" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.54296875" customWidth="1"/>
+    <col min="4" max="4" width="74.54296875" customWidth="1"/>
+    <col min="5" max="5" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.453125" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.26953125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="8" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>634</v>
       </c>
@@ -13615,7 +13651,7 @@
       </c>
       <c r="R1" s="11"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>34</v>
       </c>
@@ -13669,7 +13705,7 @@
       </c>
       <c r="S2" s="13"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>57</v>
       </c>
@@ -13723,7 +13759,7 @@
       </c>
       <c r="S3" s="13"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>86</v>
       </c>
@@ -13777,7 +13813,7 @@
       </c>
       <c r="S4" s="13"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>91</v>
       </c>
@@ -13829,7 +13865,7 @@
       </c>
       <c r="S5" s="13"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>97</v>
       </c>
@@ -13883,7 +13919,7 @@
       </c>
       <c r="S6" s="13"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>103</v>
       </c>
@@ -13937,7 +13973,7 @@
       </c>
       <c r="S7" s="13"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>110</v>
       </c>
@@ -13991,7 +14027,7 @@
       </c>
       <c r="S8" s="13"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>122</v>
       </c>
@@ -14043,7 +14079,7 @@
       </c>
       <c r="S9" s="13"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>131</v>
       </c>
@@ -14097,7 +14133,7 @@
       </c>
       <c r="S10" s="13"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>141</v>
       </c>
@@ -14151,7 +14187,7 @@
       </c>
       <c r="S11" s="13"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>146</v>
       </c>
@@ -14203,7 +14239,7 @@
       </c>
       <c r="S12" s="13"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>151</v>
       </c>
@@ -14257,7 +14293,7 @@
       </c>
       <c r="S13" s="13"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>156</v>
       </c>
@@ -14311,7 +14347,7 @@
       </c>
       <c r="S14" s="13"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>161</v>
       </c>
@@ -14365,7 +14401,7 @@
       </c>
       <c r="S15" s="13"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>170</v>
       </c>
@@ -14419,7 +14455,7 @@
       </c>
       <c r="S16" s="13"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>174</v>
       </c>
@@ -14473,7 +14509,7 @@
       </c>
       <c r="S17" s="13"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>178</v>
       </c>
@@ -14527,7 +14563,7 @@
       </c>
       <c r="S18" s="13"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>174</v>
       </c>
@@ -14581,7 +14617,7 @@
       </c>
       <c r="S19" s="13"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>170</v>
       </c>
@@ -14635,7 +14671,7 @@
       </c>
       <c r="S20" s="13"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>170</v>
       </c>
@@ -14689,7 +14725,7 @@
       </c>
       <c r="S21" s="13"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>170</v>
       </c>
@@ -14743,7 +14779,7 @@
       </c>
       <c r="S22" s="13"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>212</v>
       </c>
@@ -14795,7 +14831,7 @@
       </c>
       <c r="S23" s="13"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>217</v>
       </c>
@@ -14849,7 +14885,7 @@
       </c>
       <c r="S24" s="13"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>131</v>
       </c>
@@ -14903,7 +14939,7 @@
       </c>
       <c r="S25" s="13"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>238</v>
       </c>
@@ -14957,7 +14993,7 @@
       </c>
       <c r="S26" s="13"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>243</v>
       </c>
@@ -15011,7 +15047,7 @@
       </c>
       <c r="S27" s="13"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>249</v>
       </c>
@@ -15065,7 +15101,7 @@
       </c>
       <c r="S28" s="13"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>257</v>
       </c>
@@ -15119,7 +15155,7 @@
       </c>
       <c r="S29" s="13"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>273</v>
       </c>
@@ -15171,7 +15207,7 @@
       </c>
       <c r="S30" s="13"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>277</v>
       </c>
@@ -15223,7 +15259,7 @@
       </c>
       <c r="S31" s="13"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>281</v>
       </c>
@@ -15277,7 +15313,7 @@
       </c>
       <c r="S32" s="13"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>290</v>
       </c>
@@ -15331,7 +15367,7 @@
       </c>
       <c r="S33" s="13"/>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>170</v>
       </c>
@@ -15385,7 +15421,7 @@
       </c>
       <c r="S34" s="13"/>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>310</v>
       </c>
@@ -15439,7 +15475,7 @@
       </c>
       <c r="S35" s="13"/>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>315</v>
       </c>
@@ -15493,7 +15529,7 @@
       </c>
       <c r="S36" s="13"/>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
         <v>319</v>
       </c>
@@ -15545,7 +15581,7 @@
       </c>
       <c r="S37" s="13"/>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>170</v>
       </c>
@@ -15599,7 +15635,7 @@
       </c>
       <c r="S38" s="13"/>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>369</v>
       </c>
@@ -15653,7 +15689,7 @@
       </c>
       <c r="S39" s="13"/>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>374</v>
       </c>
@@ -15707,7 +15743,7 @@
       </c>
       <c r="S40" s="13"/>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>382</v>
       </c>
@@ -15761,7 +15797,7 @@
       </c>
       <c r="S41" s="13"/>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>390</v>
       </c>
@@ -15815,7 +15851,7 @@
       </c>
       <c r="S42" s="13"/>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>401</v>
       </c>
@@ -15869,7 +15905,7 @@
       </c>
       <c r="S43" s="13"/>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>170</v>
       </c>
@@ -15923,7 +15959,7 @@
       </c>
       <c r="S44" s="13"/>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>222</v>
       </c>
@@ -15977,7 +16013,7 @@
       </c>
       <c r="S45" s="13"/>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>331</v>
       </c>
@@ -16031,7 +16067,7 @@
       </c>
       <c r="S46" s="13"/>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
         <v>257</v>
       </c>
@@ -16085,7 +16121,7 @@
       </c>
       <c r="S47" s="13"/>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
         <v>122</v>
       </c>
@@ -16137,7 +16173,7 @@
       </c>
       <c r="S48" s="13"/>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
         <v>445</v>
       </c>
@@ -16191,7 +16227,7 @@
       </c>
       <c r="S49" s="13"/>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>459</v>
       </c>
@@ -16243,7 +16279,7 @@
       </c>
       <c r="S50" s="13"/>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
         <v>463</v>
       </c>
@@ -16297,7 +16333,7 @@
       </c>
       <c r="S51" s="13"/>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>475</v>
       </c>
@@ -16349,7 +16385,7 @@
       </c>
       <c r="S52" s="13"/>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
         <v>488</v>
       </c>
@@ -16401,7 +16437,7 @@
       </c>
       <c r="S53" s="13"/>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>170</v>
       </c>
@@ -16455,7 +16491,7 @@
       </c>
       <c r="S54" s="13"/>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
         <v>504</v>
       </c>
@@ -16509,7 +16545,7 @@
       </c>
       <c r="S55" s="13"/>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
         <v>514</v>
       </c>
@@ -16563,7 +16599,7 @@
       </c>
       <c r="S56" s="13"/>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
         <v>519</v>
       </c>
@@ -16615,7 +16651,7 @@
       </c>
       <c r="S57" s="13"/>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
         <v>524</v>
       </c>
@@ -16669,7 +16705,7 @@
       </c>
       <c r="S58" s="13"/>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59" s="8" t="s">
         <v>529</v>
       </c>
@@ -16721,7 +16757,7 @@
       </c>
       <c r="S59" s="13"/>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
         <v>535</v>
       </c>
@@ -16773,7 +16809,7 @@
       </c>
       <c r="S60" s="13"/>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
         <v>170</v>
       </c>
@@ -16827,7 +16863,7 @@
       </c>
       <c r="S61" s="13"/>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
         <v>542</v>
       </c>
@@ -16881,7 +16917,7 @@
       </c>
       <c r="S62" s="13"/>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
         <v>564</v>
       </c>
@@ -16933,7 +16969,7 @@
       </c>
       <c r="S63" s="13"/>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
         <v>170</v>
       </c>
@@ -16987,7 +17023,7 @@
       </c>
       <c r="S64" s="13"/>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A65" s="8" t="s">
         <v>170</v>
       </c>
@@ -17041,7 +17077,7 @@
       </c>
       <c r="S65" s="13"/>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
         <v>170</v>
       </c>
@@ -17095,7 +17131,7 @@
       </c>
       <c r="S66" s="13"/>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
         <v>594</v>
       </c>
@@ -17149,7 +17185,7 @@
       </c>
       <c r="S67" s="13"/>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
         <v>608</v>
       </c>
@@ -17211,32 +17247,32 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99244B9C-F234-4C6A-8B52-2C3C1E46EB4F}">
-  <dimension ref="A1:Q68"/>
+  <dimension ref="A1:Q69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="B26" workbookViewId="0">
+      <selection activeCell="Q69" sqref="Q69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.42578125" customWidth="1"/>
-    <col min="4" max="4" width="46.5703125" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.453125" customWidth="1"/>
+    <col min="4" max="4" width="46.54296875" customWidth="1"/>
+    <col min="5" max="5" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.26953125" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.26953125" bestFit="1" customWidth="1"/>
     <col min="16" max="17" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>634</v>
       </c>
@@ -17289,7 +17325,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>34</v>
       </c>
@@ -17342,7 +17378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>57</v>
       </c>
@@ -17395,7 +17431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>86</v>
       </c>
@@ -17448,13 +17484,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>91</v>
       </c>
       <c r="B5" t="s">
         <v>71</v>
       </c>
+      <c r="C5" t="s">
+        <v>653</v>
+      </c>
       <c r="D5" t="s">
         <v>93</v>
       </c>
@@ -17498,7 +17537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>97</v>
       </c>
@@ -17551,7 +17590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>103</v>
       </c>
@@ -17604,7 +17643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>110</v>
       </c>
@@ -17657,13 +17696,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>122</v>
       </c>
       <c r="B9" t="s">
         <v>78</v>
       </c>
+      <c r="C9" t="s">
+        <v>649</v>
+      </c>
       <c r="D9" t="s">
         <v>124</v>
       </c>
@@ -17707,7 +17749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>131</v>
       </c>
@@ -17760,7 +17802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>141</v>
       </c>
@@ -17813,13 +17855,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>146</v>
       </c>
       <c r="B12" t="s">
         <v>36</v>
       </c>
+      <c r="C12" t="s">
+        <v>650</v>
+      </c>
       <c r="D12" t="s">
         <v>148</v>
       </c>
@@ -17863,7 +17908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>151</v>
       </c>
@@ -17916,7 +17961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>156</v>
       </c>
@@ -17969,7 +18014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>161</v>
       </c>
@@ -18022,7 +18067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>170</v>
       </c>
@@ -18075,7 +18120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>174</v>
       </c>
@@ -18128,7 +18173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>178</v>
       </c>
@@ -18181,7 +18226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>174</v>
       </c>
@@ -18234,7 +18279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>170</v>
       </c>
@@ -18287,7 +18332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>170</v>
       </c>
@@ -18340,7 +18385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>170</v>
       </c>
@@ -18393,13 +18438,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>212</v>
       </c>
       <c r="B23" t="s">
         <v>36</v>
       </c>
+      <c r="C23" t="s">
+        <v>651</v>
+      </c>
       <c r="D23" t="s">
         <v>214</v>
       </c>
@@ -18443,7 +18491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>217</v>
       </c>
@@ -18496,7 +18544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>131</v>
       </c>
@@ -18549,7 +18597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>238</v>
       </c>
@@ -18602,7 +18650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>243</v>
       </c>
@@ -18655,7 +18703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>249</v>
       </c>
@@ -18708,7 +18756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>257</v>
       </c>
@@ -18761,13 +18809,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>273</v>
       </c>
       <c r="B30" t="s">
         <v>71</v>
       </c>
+      <c r="C30" t="s">
+        <v>652</v>
+      </c>
       <c r="D30" t="s">
         <v>275</v>
       </c>
@@ -18811,13 +18862,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>277</v>
       </c>
       <c r="B31" t="s">
         <v>71</v>
       </c>
+      <c r="C31" t="s">
+        <v>653</v>
+      </c>
       <c r="D31" t="s">
         <v>279</v>
       </c>
@@ -18861,7 +18915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>281</v>
       </c>
@@ -18914,7 +18968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>290</v>
       </c>
@@ -18967,7 +19021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>170</v>
       </c>
@@ -19020,7 +19074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>310</v>
       </c>
@@ -19073,7 +19127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>315</v>
       </c>
@@ -19126,13 +19180,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>319</v>
       </c>
       <c r="B37" t="s">
         <v>71</v>
       </c>
+      <c r="C37" t="s">
+        <v>654</v>
+      </c>
       <c r="D37" t="s">
         <v>321</v>
       </c>
@@ -19176,7 +19233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>170</v>
       </c>
@@ -19229,7 +19286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>369</v>
       </c>
@@ -19282,7 +19339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>374</v>
       </c>
@@ -19335,7 +19392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>382</v>
       </c>
@@ -19388,7 +19445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>390</v>
       </c>
@@ -19441,7 +19498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>401</v>
       </c>
@@ -19494,7 +19551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>170</v>
       </c>
@@ -19547,7 +19604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>222</v>
       </c>
@@ -19600,7 +19657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>331</v>
       </c>
@@ -19653,7 +19710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>257</v>
       </c>
@@ -19706,13 +19763,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>122</v>
       </c>
       <c r="B48" t="s">
         <v>78</v>
       </c>
+      <c r="C48" t="s">
+        <v>655</v>
+      </c>
       <c r="D48" t="s">
         <v>442</v>
       </c>
@@ -19756,7 +19816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>445</v>
       </c>
@@ -19809,13 +19869,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>459</v>
       </c>
       <c r="B50" t="s">
         <v>105</v>
       </c>
+      <c r="C50" t="s">
+        <v>657</v>
+      </c>
       <c r="D50" t="s">
         <v>461</v>
       </c>
@@ -19859,7 +19922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>463</v>
       </c>
@@ -19912,13 +19975,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>475</v>
       </c>
       <c r="B52" t="s">
         <v>105</v>
       </c>
+      <c r="C52" t="s">
+        <v>656</v>
+      </c>
       <c r="D52" t="s">
         <v>477</v>
       </c>
@@ -19962,13 +20028,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>488</v>
       </c>
       <c r="B53" t="s">
         <v>36</v>
       </c>
+      <c r="C53" t="s">
+        <v>653</v>
+      </c>
       <c r="D53" t="s">
         <v>490</v>
       </c>
@@ -20012,7 +20081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>170</v>
       </c>
@@ -20065,7 +20134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>504</v>
       </c>
@@ -20118,7 +20187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>514</v>
       </c>
@@ -20171,13 +20240,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>519</v>
       </c>
       <c r="B57" t="s">
         <v>71</v>
       </c>
+      <c r="C57" t="s">
+        <v>658</v>
+      </c>
       <c r="D57" t="s">
         <v>521</v>
       </c>
@@ -20221,7 +20293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>524</v>
       </c>
@@ -20274,13 +20346,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>529</v>
       </c>
       <c r="B59" t="s">
         <v>71</v>
       </c>
+      <c r="C59" t="s">
+        <v>653</v>
+      </c>
       <c r="D59" t="s">
         <v>531</v>
       </c>
@@ -20324,13 +20399,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>535</v>
       </c>
       <c r="B60" t="s">
         <v>71</v>
       </c>
+      <c r="C60" t="s">
+        <v>653</v>
+      </c>
       <c r="D60" t="s">
         <v>531</v>
       </c>
@@ -20374,7 +20452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>170</v>
       </c>
@@ -20427,7 +20505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>542</v>
       </c>
@@ -20480,13 +20558,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>564</v>
       </c>
       <c r="B63" t="s">
         <v>78</v>
       </c>
+      <c r="C63" t="s">
+        <v>564</v>
+      </c>
       <c r="D63" t="s">
         <v>566</v>
       </c>
@@ -20530,7 +20611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>170</v>
       </c>
@@ -20583,7 +20664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>170</v>
       </c>
@@ -20636,7 +20717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>170</v>
       </c>
@@ -20689,7 +20770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>594</v>
       </c>
@@ -20742,7 +20823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>608</v>
       </c>
@@ -20792,6 +20873,59 @@
         <v>1</v>
       </c>
       <c r="Q68" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>659</v>
+      </c>
+      <c r="B69" t="s">
+        <v>36</v>
+      </c>
+      <c r="C69" t="s">
+        <v>650</v>
+      </c>
+      <c r="D69" t="s">
+        <v>660</v>
+      </c>
+      <c r="E69" t="b">
+        <v>1</v>
+      </c>
+      <c r="F69" t="b">
+        <v>1</v>
+      </c>
+      <c r="G69" t="b">
+        <v>1</v>
+      </c>
+      <c r="H69" t="b">
+        <v>1</v>
+      </c>
+      <c r="I69" t="b">
+        <v>1</v>
+      </c>
+      <c r="J69" t="b">
+        <v>1</v>
+      </c>
+      <c r="K69" t="b">
+        <v>1</v>
+      </c>
+      <c r="L69" t="b">
+        <v>1</v>
+      </c>
+      <c r="M69" t="b">
+        <v>1</v>
+      </c>
+      <c r="N69" t="b">
+        <v>1</v>
+      </c>
+      <c r="O69" t="b">
+        <v>1</v>
+      </c>
+      <c r="P69" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q69" t="b">
         <v>0</v>
       </c>
     </row>
